--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U4I4I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U4I4I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05814AC6-EAB9-40C2-A8B3-4A66B22B000A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D503BCF-AE59-49A0-923E-908930464ABD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -623,8 +623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s">
         <v>31</v>
@@ -1425,7 +1425,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U4I4I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U4I4I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D503BCF-AE59-49A0-923E-908930464ABD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE3C30-CECA-42DC-A303-AAA2FCD370F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -623,8 +623,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,8 +1425,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9</v>
